--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/084_ChartSeriesNames.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/084_ChartSeriesNames.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R2a5c4d432ef0469c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R22cb1a9e07b541f2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -496,7 +496,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc776f0736482497c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb72eebc20e3c45da"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -526,7 +526,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9cec8b66764a4bb0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R53f38a25780745f8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -556,7 +556,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdab20cb4f88f4cef"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0cc2e5e067d24bdb"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -586,7 +586,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R52638b18ca374ea8"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4624391241854fd0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -676,6 +676,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7117865f5f2f478a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rad4f6aaacb924dd4"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/084_ChartSeriesNames.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/084_ChartSeriesNames.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R22cb1a9e07b541f2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R0d625f6b07624edc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -496,7 +496,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb72eebc20e3c45da"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb5807f94791a4d93"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -526,7 +526,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R53f38a25780745f8"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcd87c1f102a54b9c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -556,7 +556,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0cc2e5e067d24bdb"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R756ce1e704244252"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -586,7 +586,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4624391241854fd0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0d600223912d472f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -676,6 +676,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rad4f6aaacb924dd4"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb47e352364264d78"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/084_ChartSeriesNames.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/084_ChartSeriesNames.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R0d625f6b07624edc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R07e0fe97d31a428c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -496,7 +496,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb5807f94791a4d93"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rda7c2a9b04f74f1e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -526,7 +526,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcd87c1f102a54b9c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf485ce2b22654541"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -556,7 +556,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R756ce1e704244252"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R347d2aae52ba468d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -586,7 +586,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0d600223912d472f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0b36f0ed2e6b4a3a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -676,6 +676,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb47e352364264d78"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9b96e358b46f42b6"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/084_ChartSeriesNames.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/084_ChartSeriesNames.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R07e0fe97d31a428c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R6bd5ee169ebd408f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -496,7 +496,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rda7c2a9b04f74f1e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R89ba2bb353d64524"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -526,7 +526,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf485ce2b22654541"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3025a5e953654d37"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -556,7 +556,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R347d2aae52ba468d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Reab7bb9da5e0435a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -586,7 +586,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0b36f0ed2e6b4a3a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7d02102dd45c4626"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -676,6 +676,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9b96e358b46f42b6"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1581af5f4bde430a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/084_ChartSeriesNames.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/084_ChartSeriesNames.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R6bd5ee169ebd408f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R552b24a7793a417c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -496,7 +496,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R89ba2bb353d64524"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra73ea20425894233"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -526,7 +526,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3025a5e953654d37"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R754b664cf6744677"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -556,7 +556,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Reab7bb9da5e0435a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc00a44929d8f4e93"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -586,7 +586,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7d02102dd45c4626"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb2c7e43dc2174239"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -676,6 +676,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1581af5f4bde430a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd7b4b9694746458f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/084_ChartSeriesNames.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/084_ChartSeriesNames.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R552b24a7793a417c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R4448dfae12c546f5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -496,7 +496,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra73ea20425894233"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0fbc082d655f4ff1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -526,7 +526,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R754b664cf6744677"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re0ea5e5635cd41ff"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -556,7 +556,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc00a44929d8f4e93"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra68bf2b0fb7b44cf"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -586,7 +586,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb2c7e43dc2174239"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc8ca575f35eb487f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -676,6 +676,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd7b4b9694746458f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R931226486118413e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/084_ChartSeriesNames.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/084_ChartSeriesNames.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R4448dfae12c546f5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rb5d2bb9177534e9b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -496,7 +496,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0fbc082d655f4ff1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R92f26d3078884f40"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -526,7 +526,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re0ea5e5635cd41ff"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0a5ded75f2a847ee"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -556,7 +556,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra68bf2b0fb7b44cf"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re8fc2258f04b4a9c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -586,7 +586,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc8ca575f35eb487f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R673c7e52fc8d43ef"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -676,6 +676,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R931226486118413e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8e475c94a82046f8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/084_ChartSeriesNames.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/084_ChartSeriesNames.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rb5d2bb9177534e9b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rb6b6d8a0293a42c2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -496,7 +496,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R92f26d3078884f40"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R78cad95b59e94b94"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -526,7 +526,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0a5ded75f2a847ee"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R68a3668370d14895"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -556,7 +556,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re8fc2258f04b4a9c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf23f5dbdafa04971"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -586,7 +586,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R673c7e52fc8d43ef"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9986f740209d44ac"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -676,6 +676,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8e475c94a82046f8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0cd62ac3116f4767"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/084_ChartSeriesNames.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/084_ChartSeriesNames.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rb6b6d8a0293a42c2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R371b770989b8463f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -496,7 +496,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R78cad95b59e94b94"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R14000f7ae0814261"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -526,7 +526,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R68a3668370d14895"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd4ee7a7e42194ba6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -556,7 +556,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf23f5dbdafa04971"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc6a469880c814659"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -586,7 +586,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9986f740209d44ac"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd0ebfce25eda434e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -676,6 +676,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0cd62ac3116f4767"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R18b8cf34ee254ecb"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/084_ChartSeriesNames.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/084_ChartSeriesNames.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R371b770989b8463f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rc009a2782d304dda"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -496,7 +496,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R14000f7ae0814261"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R787990af70f344d2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -526,7 +526,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd4ee7a7e42194ba6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd7302c57b5a34e9b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -556,7 +556,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc6a469880c814659"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R27c5ff0330dc447d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -586,7 +586,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd0ebfce25eda434e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R78e2143116f2480c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -676,6 +676,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R18b8cf34ee254ecb"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R06f3e733cdb348b5"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/084_ChartSeriesNames.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/084_ChartSeriesNames.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rc009a2782d304dda"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R534a282a739d40c5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -496,7 +496,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R787990af70f344d2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdf99d756201c4c92"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -526,7 +526,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd7302c57b5a34e9b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb92e6f0ecb9d4e5a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -556,7 +556,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R27c5ff0330dc447d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb162b1844a1f40fb"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -586,7 +586,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R78e2143116f2480c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rff9b868749c94f16"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -676,6 +676,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R06f3e733cdb348b5"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R34b67ed707b2405e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/084_ChartSeriesNames.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/084_ChartSeriesNames.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R534a282a739d40c5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R25bab8c1998f4e5d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -496,7 +496,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdf99d756201c4c92"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc6bbec0014d34361"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -526,7 +526,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb92e6f0ecb9d4e5a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1fe3d769a37f4ea1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -556,7 +556,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb162b1844a1f40fb"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfcd88e23e6374d16"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -586,7 +586,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rff9b868749c94f16"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf0b034008c7d4432"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -676,6 +676,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R34b67ed707b2405e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb4f0bd9830684649"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/084_ChartSeriesNames.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/084_ChartSeriesNames.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R25bab8c1998f4e5d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R250bbf7a5ab6491e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -496,7 +496,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc6bbec0014d34361"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5a1346df0d6b46ba"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -526,7 +526,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1fe3d769a37f4ea1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R92bd858a58ce4985"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -556,7 +556,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfcd88e23e6374d16"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R782a1c5cf44647fe"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -586,7 +586,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf0b034008c7d4432"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf1de3a5bf7d24ee6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -676,6 +676,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb4f0bd9830684649"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfa86c61096424b82"/>
 </x:worksheet>
 </file>